--- a/ph_distr_direct_40deg.xlsx
+++ b/ph_distr_direct_40deg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,15 +443,799 @@
         <v>-487.5</v>
       </c>
       <c r="B2" t="n">
-        <v>-120.7894970314423</v>
+        <v>53.53996495497859</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>-477.6515151515151</v>
+      </c>
+      <c r="B3" t="n">
+        <v>55.26933905388023</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>-467.8030303030303</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56.99871315278187</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>-457.9545454545454</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58.72808725168352</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>-448.1060606060606</v>
+      </c>
+      <c r="B6" t="n">
+        <v>60.45746135058516</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>-438.2575757575758</v>
+      </c>
+      <c r="B7" t="n">
+        <v>62.18683544948692</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>-428.4090909090909</v>
+      </c>
+      <c r="B8" t="n">
+        <v>63.91620954838845</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>-418.5606060606061</v>
+      </c>
+      <c r="B9" t="n">
+        <v>65.6455836472901</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>-408.7121212121212</v>
+      </c>
+      <c r="B10" t="n">
+        <v>67.37495774619174</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>-398.8636363636364</v>
+      </c>
+      <c r="B11" t="n">
+        <v>69.1043318450935</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>-389.0151515151515</v>
+      </c>
+      <c r="B12" t="n">
+        <v>70.83370594399503</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>-379.1666666666667</v>
+      </c>
+      <c r="B13" t="n">
+        <v>72.56308004289679</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>-369.3181818181818</v>
+      </c>
+      <c r="B14" t="n">
+        <v>74.29245414179832</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>-359.469696969697</v>
+      </c>
+      <c r="B15" t="n">
+        <v>76.02182824070007</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>-349.6212121212121</v>
+      </c>
+      <c r="B16" t="n">
+        <v>77.7512023396016</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>-339.7727272727273</v>
+      </c>
+      <c r="B17" t="n">
+        <v>79.48057643850336</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>-329.9242424242424</v>
+      </c>
+      <c r="B18" t="n">
+        <v>81.20995053740501</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>-320.0757575757576</v>
+      </c>
+      <c r="B19" t="n">
+        <v>82.93932463630665</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>-310.2272727272727</v>
+      </c>
+      <c r="B20" t="n">
+        <v>84.66869873520841</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>-300.3787878787879</v>
+      </c>
+      <c r="B21" t="n">
+        <v>86.39807283411005</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>-290.5303030303031</v>
+      </c>
+      <c r="B22" t="n">
+        <v>88.12744693301158</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>-280.6818181818182</v>
+      </c>
+      <c r="B23" t="n">
+        <v>89.85682103191334</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>-270.8333333333334</v>
+      </c>
+      <c r="B24" t="n">
+        <v>91.58619513081499</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>-260.9848484848485</v>
+      </c>
+      <c r="B25" t="n">
+        <v>93.31556922971663</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>-251.1363636363637</v>
+      </c>
+      <c r="B26" t="n">
+        <v>95.04494332861827</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>-241.2878787878788</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96.77431742751992</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>-231.4393939393939</v>
+      </c>
+      <c r="B28" t="n">
+        <v>98.50369152642156</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>-221.5909090909091</v>
+      </c>
+      <c r="B29" t="n">
+        <v>100.2330656253232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>-211.7424242424242</v>
+      </c>
+      <c r="B30" t="n">
+        <v>101.9624397242249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>-201.8939393939394</v>
+      </c>
+      <c r="B31" t="n">
+        <v>103.6918138231265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>-192.0454545454546</v>
+      </c>
+      <c r="B32" t="n">
+        <v>105.4211879220281</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>-182.1969696969697</v>
+      </c>
+      <c r="B33" t="n">
+        <v>107.1505620209298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>-172.3484848484849</v>
+      </c>
+      <c r="B34" t="n">
+        <v>108.8799361198314</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>-162.5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>110.6093102187331</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>-152.6515151515152</v>
+      </c>
+      <c r="B36" t="n">
+        <v>112.3386843176347</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>-142.8030303030303</v>
+      </c>
+      <c r="B37" t="n">
+        <v>114.0680584165364</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>-132.9545454545455</v>
+      </c>
+      <c r="B38" t="n">
+        <v>115.797432515438</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>-123.1060606060606</v>
+      </c>
+      <c r="B39" t="n">
+        <v>117.5268066143396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>-113.2575757575758</v>
+      </c>
+      <c r="B40" t="n">
+        <v>119.2561807132413</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>-103.4090909090909</v>
+      </c>
+      <c r="B41" t="n">
+        <v>120.9855548121431</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>-93.56060606060612</v>
+      </c>
+      <c r="B42" t="n">
+        <v>122.7149289110446</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>-83.71212121212125</v>
+      </c>
+      <c r="B43" t="n">
+        <v>124.4443030099463</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>-73.86363636363637</v>
+      </c>
+      <c r="B44" t="n">
+        <v>126.173677108848</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>-64.01515151515156</v>
+      </c>
+      <c r="B45" t="n">
+        <v>127.9030512077496</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>-54.16666666666669</v>
+      </c>
+      <c r="B46" t="n">
+        <v>129.6324253066513</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>-44.31818181818187</v>
+      </c>
+      <c r="B47" t="n">
+        <v>131.3617994055529</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>-34.469696969697</v>
+      </c>
+      <c r="B48" t="n">
+        <v>133.0911735044546</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>-24.62121212121218</v>
+      </c>
+      <c r="B49" t="n">
+        <v>134.8205476033562</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>-14.77272727272731</v>
+      </c>
+      <c r="B50" t="n">
+        <v>136.5499217022579</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>-4.924242424242436</v>
+      </c>
+      <c r="B51" t="n">
+        <v>138.2792958011595</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>4.924242424242379</v>
+      </c>
+      <c r="B52" t="n">
+        <v>140.0086699000612</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>14.77272727272725</v>
+      </c>
+      <c r="B53" t="n">
+        <v>141.7380439989629</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>24.62121212121212</v>
+      </c>
+      <c r="B54" t="n">
+        <v>143.4674180978645</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>34.46969696969688</v>
+      </c>
+      <c r="B55" t="n">
+        <v>145.1967921967662</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44.31818181818176</v>
+      </c>
+      <c r="B56" t="n">
+        <v>146.9261662956678</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>54.16666666666663</v>
+      </c>
+      <c r="B57" t="n">
+        <v>148.6555403945694</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>64.0151515151515</v>
+      </c>
+      <c r="B58" t="n">
+        <v>150.3849144934711</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>73.86363636363637</v>
+      </c>
+      <c r="B59" t="n">
+        <v>152.1142885923727</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>83.71212121212113</v>
+      </c>
+      <c r="B60" t="n">
+        <v>153.8436626912744</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>93.56060606060601</v>
+      </c>
+      <c r="B61" t="n">
+        <v>155.573036790176</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>103.4090909090909</v>
+      </c>
+      <c r="B62" t="n">
+        <v>157.3024108890777</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>113.2575757575758</v>
+      </c>
+      <c r="B63" t="n">
+        <v>159.0317849879794</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>123.1060606060605</v>
+      </c>
+      <c r="B64" t="n">
+        <v>160.761159086881</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>132.9545454545454</v>
+      </c>
+      <c r="B65" t="n">
+        <v>162.4905331857827</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>142.8030303030303</v>
+      </c>
+      <c r="B66" t="n">
+        <v>164.2199072846843</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>152.6515151515151</v>
+      </c>
+      <c r="B67" t="n">
+        <v>165.949281383586</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>167.6786554824876</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>172.3484848484848</v>
+      </c>
+      <c r="B69" t="n">
+        <v>169.4080295813893</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>182.1969696969696</v>
+      </c>
+      <c r="B70" t="n">
+        <v>171.1374036802909</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>192.0454545454545</v>
+      </c>
+      <c r="B71" t="n">
+        <v>172.8667777791926</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>201.8939393939394</v>
+      </c>
+      <c r="B72" t="n">
+        <v>174.5961518780942</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>211.7424242424241</v>
+      </c>
+      <c r="B73" t="n">
+        <v>176.3255259769959</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>221.590909090909</v>
+      </c>
+      <c r="B74" t="n">
+        <v>178.0549000758975</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>231.4393939393939</v>
+      </c>
+      <c r="B75" t="n">
+        <v>179.7842741747992</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>241.2878787878788</v>
+      </c>
+      <c r="B76" t="n">
+        <v>181.5136482737008</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>251.1363636363636</v>
+      </c>
+      <c r="B77" t="n">
+        <v>183.2430223726025</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>260.9848484848484</v>
+      </c>
+      <c r="B78" t="n">
+        <v>184.9723964715041</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>270.8333333333333</v>
+      </c>
+      <c r="B79" t="n">
+        <v>186.7017705704058</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>280.6818181818181</v>
+      </c>
+      <c r="B80" t="n">
+        <v>188.4311446693074</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>290.530303030303</v>
+      </c>
+      <c r="B81" t="n">
+        <v>190.1605187682091</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>300.3787878787878</v>
+      </c>
+      <c r="B82" t="n">
+        <v>191.8898928671107</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>310.2272727272726</v>
+      </c>
+      <c r="B83" t="n">
+        <v>193.6192669660124</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>320.0757575757575</v>
+      </c>
+      <c r="B84" t="n">
+        <v>195.348641064914</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>329.9242424242424</v>
+      </c>
+      <c r="B85" t="n">
+        <v>197.0780151638157</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>339.7727272727273</v>
+      </c>
+      <c r="B86" t="n">
+        <v>198.8073892627174</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>349.621212121212</v>
+      </c>
+      <c r="B87" t="n">
+        <v>200.5367633616189</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>359.4696969696969</v>
+      </c>
+      <c r="B88" t="n">
+        <v>202.2661374605206</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>369.3181818181818</v>
+      </c>
+      <c r="B89" t="n">
+        <v>203.9955115594223</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>379.1666666666666</v>
+      </c>
+      <c r="B90" t="n">
+        <v>205.7248856583239</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>389.0151515151515</v>
+      </c>
+      <c r="B91" t="n">
+        <v>207.4542597572256</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>398.8636363636363</v>
+      </c>
+      <c r="B92" t="n">
+        <v>209.1836338561272</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>408.7121212121211</v>
+      </c>
+      <c r="B93" t="n">
+        <v>210.9130079550289</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>418.560606060606</v>
+      </c>
+      <c r="B94" t="n">
+        <v>212.6423820539305</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>428.4090909090909</v>
+      </c>
+      <c r="B95" t="n">
+        <v>214.3717561528322</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>438.2575757575756</v>
+      </c>
+      <c r="B96" t="n">
+        <v>216.1011302517338</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>448.1060606060605</v>
+      </c>
+      <c r="B97" t="n">
+        <v>217.8305043506355</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>457.9545454545454</v>
+      </c>
+      <c r="B98" t="n">
+        <v>219.5598784495371</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>467.8030303030303</v>
+      </c>
+      <c r="B99" t="n">
+        <v>221.2892525484388</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>477.6515151515151</v>
+      </c>
+      <c r="B100" t="n">
+        <v>223.0186266473405</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>487.5</v>
       </c>
-      <c r="B3" t="n">
-        <v>49.84801594469673</v>
+      <c r="B101" t="n">
+        <v>224.7480007462421</v>
       </c>
     </row>
   </sheetData>

--- a/ph_distr_direct_40deg.xlsx
+++ b/ph_distr_direct_40deg.xlsx
@@ -443,7 +443,7 @@
         <v>-487.5</v>
       </c>
       <c r="B2" t="n">
-        <v>53.53996495497859</v>
+        <v>-121.1398329593187</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>-477.6515151515151</v>
       </c>
       <c r="B3" t="n">
-        <v>55.26933905388023</v>
+        <v>-119.4150302107065</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>-467.8030303030303</v>
       </c>
       <c r="B4" t="n">
-        <v>56.99871315278187</v>
+        <v>-117.6902274620943</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>-457.9545454545454</v>
       </c>
       <c r="B5" t="n">
-        <v>58.72808725168352</v>
+        <v>-115.9654247134822</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>-448.1060606060606</v>
       </c>
       <c r="B6" t="n">
-        <v>60.45746135058516</v>
+        <v>-114.24062196487</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>-438.2575757575758</v>
       </c>
       <c r="B7" t="n">
-        <v>62.18683544948692</v>
+        <v>-112.5158192162579</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>-428.4090909090909</v>
       </c>
       <c r="B8" t="n">
-        <v>63.91620954838845</v>
+        <v>-110.7910164676457</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>-418.5606060606061</v>
       </c>
       <c r="B9" t="n">
-        <v>65.6455836472901</v>
+        <v>-109.0662137190335</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>-408.7121212121212</v>
       </c>
       <c r="B10" t="n">
-        <v>67.37495774619174</v>
+        <v>-107.3414109704215</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>-398.8636363636364</v>
       </c>
       <c r="B11" t="n">
-        <v>69.1043318450935</v>
+        <v>-105.6166082218093</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>-389.0151515151515</v>
       </c>
       <c r="B12" t="n">
-        <v>70.83370594399503</v>
+        <v>-103.8918054731971</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>-379.1666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>72.56308004289679</v>
+        <v>-102.167002724585</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>-369.3181818181818</v>
       </c>
       <c r="B14" t="n">
-        <v>74.29245414179832</v>
+        <v>-100.4421999759728</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>-359.469696969697</v>
       </c>
       <c r="B15" t="n">
-        <v>76.02182824070007</v>
+        <v>-98.71739722736072</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>-349.6212121212121</v>
       </c>
       <c r="B16" t="n">
-        <v>77.7512023396016</v>
+        <v>-96.99259447874852</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>-339.7727272727273</v>
       </c>
       <c r="B17" t="n">
-        <v>79.48057643850336</v>
+        <v>-95.26779173013631</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>-329.9242424242424</v>
       </c>
       <c r="B18" t="n">
-        <v>81.20995053740501</v>
+        <v>-93.54298898152422</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>-320.0757575757576</v>
       </c>
       <c r="B19" t="n">
-        <v>82.93932463630665</v>
+        <v>-91.81818623291201</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>-310.2272727272727</v>
       </c>
       <c r="B20" t="n">
-        <v>84.66869873520841</v>
+        <v>-90.09338348429992</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>-300.3787878787879</v>
       </c>
       <c r="B21" t="n">
-        <v>86.39807283411005</v>
+        <v>-88.36858073568771</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>-290.5303030303031</v>
       </c>
       <c r="B22" t="n">
-        <v>88.12744693301158</v>
+        <v>-86.64377798707551</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>-280.6818181818182</v>
       </c>
       <c r="B23" t="n">
-        <v>89.85682103191334</v>
+        <v>-84.91897523846342</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>-270.8333333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>91.58619513081499</v>
+        <v>-83.19417248985121</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>-260.9848484848485</v>
       </c>
       <c r="B25" t="n">
-        <v>93.31556922971663</v>
+        <v>-81.46936974123912</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>-251.1363636363637</v>
       </c>
       <c r="B26" t="n">
-        <v>95.04494332861827</v>
+        <v>-79.74456699262691</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>-241.2878787878788</v>
       </c>
       <c r="B27" t="n">
-        <v>96.77431742751992</v>
+        <v>-78.01976424401482</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>-231.4393939393939</v>
       </c>
       <c r="B28" t="n">
-        <v>98.50369152642156</v>
+        <v>-76.29496149540262</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>-221.5909090909091</v>
       </c>
       <c r="B29" t="n">
-        <v>100.2330656253232</v>
+        <v>-74.57015874679041</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>-211.7424242424242</v>
       </c>
       <c r="B30" t="n">
-        <v>101.9624397242249</v>
+        <v>-72.84535599817832</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>-201.8939393939394</v>
       </c>
       <c r="B31" t="n">
-        <v>103.6918138231265</v>
+        <v>-71.12055324956623</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>-192.0454545454546</v>
       </c>
       <c r="B32" t="n">
-        <v>105.4211879220281</v>
+        <v>-69.39575050095402</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>-182.1969696969697</v>
       </c>
       <c r="B33" t="n">
-        <v>107.1505620209298</v>
+        <v>-67.67094775234193</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>-172.3484848484849</v>
       </c>
       <c r="B34" t="n">
-        <v>108.8799361198314</v>
+        <v>-65.94614500372973</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>-162.5</v>
       </c>
       <c r="B35" t="n">
-        <v>110.6093102187331</v>
+        <v>-64.22134225511752</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>-152.6515151515152</v>
       </c>
       <c r="B36" t="n">
-        <v>112.3386843176347</v>
+        <v>-62.49653950650543</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>-142.8030303030303</v>
       </c>
       <c r="B37" t="n">
-        <v>114.0680584165364</v>
+        <v>-60.77173675789322</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>-132.9545454545455</v>
       </c>
       <c r="B38" t="n">
-        <v>115.797432515438</v>
+        <v>-59.04693400928113</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>-123.1060606060606</v>
       </c>
       <c r="B39" t="n">
-        <v>117.5268066143396</v>
+        <v>-57.32213126066893</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>-113.2575757575758</v>
       </c>
       <c r="B40" t="n">
-        <v>119.2561807132413</v>
+        <v>-55.59732851205683</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>-103.4090909090909</v>
       </c>
       <c r="B41" t="n">
-        <v>120.9855548121431</v>
+        <v>-53.87252576344463</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>-93.56060606060612</v>
       </c>
       <c r="B42" t="n">
-        <v>122.7149289110446</v>
+        <v>-52.14772301483242</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>-83.71212121212125</v>
       </c>
       <c r="B43" t="n">
-        <v>124.4443030099463</v>
+        <v>-50.42292026622033</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>-73.86363636363637</v>
       </c>
       <c r="B44" t="n">
-        <v>126.173677108848</v>
+        <v>-48.69811751760813</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>-64.01515151515156</v>
       </c>
       <c r="B45" t="n">
-        <v>127.9030512077496</v>
+        <v>-46.97331476899603</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>-54.16666666666669</v>
       </c>
       <c r="B46" t="n">
-        <v>129.6324253066513</v>
+        <v>-45.24851202038383</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>-44.31818181818187</v>
       </c>
       <c r="B47" t="n">
-        <v>131.3617994055529</v>
+        <v>-43.52370927177174</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>-34.469696969697</v>
       </c>
       <c r="B48" t="n">
-        <v>133.0911735044546</v>
+        <v>-41.79890652315953</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>-24.62121212121218</v>
       </c>
       <c r="B49" t="n">
-        <v>134.8205476033562</v>
+        <v>-40.07410377454744</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>-14.77272727272731</v>
       </c>
       <c r="B50" t="n">
-        <v>136.5499217022579</v>
+        <v>-38.34930102593523</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>-4.924242424242436</v>
       </c>
       <c r="B51" t="n">
-        <v>138.2792958011595</v>
+        <v>-36.62449827732314</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>4.924242424242379</v>
       </c>
       <c r="B52" t="n">
-        <v>140.0086699000612</v>
+        <v>-34.89969552871094</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>14.77272727272725</v>
       </c>
       <c r="B53" t="n">
-        <v>141.7380439989629</v>
+        <v>-33.17489278009873</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>24.62121212121212</v>
       </c>
       <c r="B54" t="n">
-        <v>143.4674180978645</v>
+        <v>-31.45009003148664</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>34.46969696969688</v>
       </c>
       <c r="B55" t="n">
-        <v>145.1967921967662</v>
+        <v>-29.72528728287443</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>44.31818181818176</v>
       </c>
       <c r="B56" t="n">
-        <v>146.9261662956678</v>
+        <v>-28.00048453426234</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>54.16666666666663</v>
       </c>
       <c r="B57" t="n">
-        <v>148.6555403945694</v>
+        <v>-26.27568178565014</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>64.0151515151515</v>
       </c>
       <c r="B58" t="n">
-        <v>150.3849144934711</v>
+        <v>-24.55087903703804</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>73.86363636363637</v>
       </c>
       <c r="B59" t="n">
-        <v>152.1142885923727</v>
+        <v>-22.82607628842584</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>83.71212121212113</v>
       </c>
       <c r="B60" t="n">
-        <v>153.8436626912744</v>
+        <v>-21.10127353981375</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>93.56060606060601</v>
       </c>
       <c r="B61" t="n">
-        <v>155.573036790176</v>
+        <v>-19.37647079120154</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>103.4090909090909</v>
       </c>
       <c r="B62" t="n">
-        <v>157.3024108890777</v>
+        <v>-17.65166804258934</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>113.2575757575758</v>
       </c>
       <c r="B63" t="n">
-        <v>159.0317849879794</v>
+        <v>-15.92686529397724</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>123.1060606060605</v>
       </c>
       <c r="B64" t="n">
-        <v>160.761159086881</v>
+        <v>-14.20206254536504</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>132.9545454545454</v>
       </c>
       <c r="B65" t="n">
-        <v>162.4905331857827</v>
+        <v>-12.47725979675295</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>142.8030303030303</v>
       </c>
       <c r="B66" t="n">
-        <v>164.2199072846843</v>
+        <v>-10.75245704814074</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>152.6515151515151</v>
       </c>
       <c r="B67" t="n">
-        <v>165.949281383586</v>
+        <v>-9.027654299528649</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>162.5</v>
       </c>
       <c r="B68" t="n">
-        <v>167.6786554824876</v>
+        <v>-7.302851550916444</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>172.3484848484848</v>
       </c>
       <c r="B69" t="n">
-        <v>169.4080295813893</v>
+        <v>-5.578048802304295</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>182.1969696969696</v>
       </c>
       <c r="B70" t="n">
-        <v>171.1374036802909</v>
+        <v>-3.853246053692146</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>192.0454545454545</v>
       </c>
       <c r="B71" t="n">
-        <v>172.8667777791926</v>
+        <v>-2.128443305079941</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>201.8939393939394</v>
       </c>
       <c r="B72" t="n">
-        <v>174.5961518780942</v>
+        <v>-0.4036405564677921</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>211.7424242424241</v>
       </c>
       <c r="B73" t="n">
-        <v>176.3255259769959</v>
+        <v>1.321162192144357</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>221.590909090909</v>
       </c>
       <c r="B74" t="n">
-        <v>178.0549000758975</v>
+        <v>3.045964940756448</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>231.4393939393939</v>
       </c>
       <c r="B75" t="n">
-        <v>179.7842741747992</v>
+        <v>4.770767689368654</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>241.2878787878788</v>
       </c>
       <c r="B76" t="n">
-        <v>181.5136482737008</v>
+        <v>6.495570437980746</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>251.1363636363636</v>
       </c>
       <c r="B77" t="n">
-        <v>183.2430223726025</v>
+        <v>8.220373186592951</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>260.9848484848484</v>
       </c>
       <c r="B78" t="n">
-        <v>184.9723964715041</v>
+        <v>9.9451759352051</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>270.8333333333333</v>
       </c>
       <c r="B79" t="n">
-        <v>186.7017705704058</v>
+        <v>11.66997868381725</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>280.6818181818181</v>
       </c>
       <c r="B80" t="n">
-        <v>188.4311446693074</v>
+        <v>13.3947814324294</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>290.530303030303</v>
       </c>
       <c r="B81" t="n">
-        <v>190.1605187682091</v>
+        <v>15.11958418104155</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>300.3787878787878</v>
       </c>
       <c r="B82" t="n">
-        <v>191.8898928671107</v>
+        <v>16.84438692965369</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>310.2272727272726</v>
       </c>
       <c r="B83" t="n">
-        <v>193.6192669660124</v>
+        <v>18.56918967826584</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>320.0757575757575</v>
       </c>
       <c r="B84" t="n">
-        <v>195.348641064914</v>
+        <v>20.29399242687805</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>329.9242424242424</v>
       </c>
       <c r="B85" t="n">
-        <v>197.0780151638157</v>
+        <v>22.0187951754902</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>339.7727272727273</v>
       </c>
       <c r="B86" t="n">
-        <v>198.8073892627174</v>
+        <v>23.74359792410235</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>349.621212121212</v>
       </c>
       <c r="B87" t="n">
-        <v>200.5367633616189</v>
+        <v>25.46840067271444</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>359.4696969696969</v>
       </c>
       <c r="B88" t="n">
-        <v>202.2661374605206</v>
+        <v>27.19320342132664</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>369.3181818181818</v>
       </c>
       <c r="B89" t="n">
-        <v>203.9955115594223</v>
+        <v>28.91800616993885</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>379.1666666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>205.7248856583239</v>
+        <v>30.64280891855094</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>389.0151515151515</v>
       </c>
       <c r="B91" t="n">
-        <v>207.4542597572256</v>
+        <v>32.36761166716315</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>398.8636363636363</v>
       </c>
       <c r="B92" t="n">
-        <v>209.1836338561272</v>
+        <v>34.09241441577524</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>408.7121212121211</v>
       </c>
       <c r="B93" t="n">
-        <v>210.9130079550289</v>
+        <v>35.81721716438744</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>418.560606060606</v>
       </c>
       <c r="B94" t="n">
-        <v>212.6423820539305</v>
+        <v>37.54201991299954</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>428.4090909090909</v>
       </c>
       <c r="B95" t="n">
-        <v>214.3717561528322</v>
+        <v>39.26682266161174</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>438.2575757575756</v>
       </c>
       <c r="B96" t="n">
-        <v>216.1011302517338</v>
+        <v>40.99162541022389</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>448.1060606060605</v>
       </c>
       <c r="B97" t="n">
-        <v>217.8305043506355</v>
+        <v>42.71642815883604</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>457.9545454545454</v>
       </c>
       <c r="B98" t="n">
-        <v>219.5598784495371</v>
+        <v>44.44123090744813</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>467.8030303030303</v>
       </c>
       <c r="B99" t="n">
-        <v>221.2892525484388</v>
+        <v>46.16603365606034</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>477.6515151515151</v>
       </c>
       <c r="B100" t="n">
-        <v>223.0186266473405</v>
+        <v>47.89083640467248</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>487.5</v>
       </c>
       <c r="B101" t="n">
-        <v>224.7480007462421</v>
+        <v>49.61563915328463</v>
       </c>
     </row>
   </sheetData>

--- a/ph_distr_direct_40deg.xlsx
+++ b/ph_distr_direct_40deg.xlsx
@@ -443,7 +443,7 @@
         <v>-0.4875</v>
       </c>
       <c r="B2" t="n">
-        <v>-419.7205230608982</v>
+        <v>-483.569318496234</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>-0.4776515151515152</v>
       </c>
       <c r="B3" t="n">
-        <v>-417.9957203122862</v>
+        <v>-481.5323149890178</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>-0.4678030303030303</v>
       </c>
       <c r="B4" t="n">
-        <v>-416.2709175636739</v>
+        <v>-479.5087835530728</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>-0.4579545454545455</v>
       </c>
       <c r="B5" t="n">
-        <v>-414.5461148150618</v>
+        <v>-477.498724834903</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>-0.4481060606060606</v>
       </c>
       <c r="B6" t="n">
-        <v>-412.8213120664496</v>
+        <v>-475.5021705464148</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>-0.4382575757575758</v>
       </c>
       <c r="B7" t="n">
-        <v>-411.0965093178375</v>
+        <v>-473.5187366012337</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>-0.428409090909091</v>
       </c>
       <c r="B8" t="n">
-        <v>-409.3717065692253</v>
+        <v>-471.5481275148404</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>-0.4185606060606061</v>
       </c>
       <c r="B9" t="n">
-        <v>-407.6469038206131</v>
+        <v>-469.5900448417273</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>-0.4087121212121212</v>
       </c>
       <c r="B10" t="n">
-        <v>-405.9221010720011</v>
+        <v>-467.6441391693349</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>-0.3988636363636364</v>
       </c>
       <c r="B11" t="n">
-        <v>-404.1972983233888</v>
+        <v>-465.7100445034865</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>-0.3890151515151515</v>
       </c>
       <c r="B12" t="n">
-        <v>-402.4724955747768</v>
+        <v>-463.787375909564</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>-0.3791666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>-400.7476928261646</v>
+        <v>-461.8757315034973</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>-0.3693181818181819</v>
       </c>
       <c r="B14" t="n">
-        <v>-399.0228900775524</v>
+        <v>-459.9746967522454</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>-0.359469696969697</v>
       </c>
       <c r="B15" t="n">
-        <v>-397.2980873289403</v>
+        <v>-458.0838473928668</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>-0.3496212121212122</v>
       </c>
       <c r="B16" t="n">
-        <v>-395.5732845803282</v>
+        <v>-456.2027526314691</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>-0.3397727272727273</v>
       </c>
       <c r="B17" t="n">
-        <v>-393.8484818317159</v>
+        <v>-454.3309781446362</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>-0.3299242424242425</v>
       </c>
       <c r="B18" t="n">
-        <v>-392.1236790831039</v>
+        <v>-452.4680887182525</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>-0.3200757575757576</v>
       </c>
       <c r="B19" t="n">
-        <v>-390.3988763344916</v>
+        <v>-450.6136516183677</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>-0.3102272727272727</v>
       </c>
       <c r="B20" t="n">
-        <v>-388.6740735858795</v>
+        <v>-448.7672353100049</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>-0.3003787878787879</v>
       </c>
       <c r="B21" t="n">
-        <v>-386.9492708372673</v>
+        <v>-446.9284287761939</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>-0.290530303030303</v>
       </c>
       <c r="B22" t="n">
-        <v>-385.2244680886552</v>
+        <v>-445.0803256981009</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>-0.2806818181818182</v>
       </c>
       <c r="B23" t="n">
-        <v>-383.499665340043</v>
+        <v>-443.2058948757575</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>-0.2708333333333334</v>
       </c>
       <c r="B24" t="n">
-        <v>-381.7748625914309</v>
+        <v>-441.3882091942289</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>-0.2609848484848485</v>
       </c>
       <c r="B25" t="n">
-        <v>-380.0500598428188</v>
+        <v>-439.7397654658139</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>-0.2511363636363637</v>
       </c>
       <c r="B26" t="n">
-        <v>-378.3252570942066</v>
+        <v>-438.1012284385019</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>-0.2412878787878788</v>
       </c>
       <c r="B27" t="n">
-        <v>-376.6004543455944</v>
+        <v>-436.4694380372756</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>-0.2314393939393939</v>
       </c>
       <c r="B28" t="n">
-        <v>-374.8756515969822</v>
+        <v>-434.8441785169379</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>-0.2215909090909091</v>
       </c>
       <c r="B29" t="n">
-        <v>-373.1508488483701</v>
+        <v>-433.2251634123016</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>-0.2117424242424243</v>
       </c>
       <c r="B30" t="n">
-        <v>-371.4260460997579</v>
+        <v>-431.6121119813855</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>-0.2018939393939394</v>
       </c>
       <c r="B31" t="n">
-        <v>-369.7012433511457</v>
+        <v>-430.0047558523686</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>-0.1920454545454546</v>
       </c>
       <c r="B32" t="n">
-        <v>-367.9764406025337</v>
+        <v>-428.4028345335074</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>-0.1821969696969697</v>
       </c>
       <c r="B33" t="n">
-        <v>-366.2516378539215</v>
+        <v>-426.806096565071</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>-0.1723484848484849</v>
       </c>
       <c r="B34" t="n">
-        <v>-364.5268351053093</v>
+        <v>-425.2142993165817</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>-0.1625</v>
       </c>
       <c r="B35" t="n">
-        <v>-362.8020323566971</v>
+        <v>-423.6272089344999</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>-0.1526515151515151</v>
       </c>
       <c r="B36" t="n">
-        <v>-361.077229608085</v>
+        <v>-422.0446000780408</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>-0.1428030303030303</v>
       </c>
       <c r="B37" t="n">
-        <v>-359.3524268594729</v>
+        <v>-420.4662584232916</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>-0.1329545454545454</v>
       </c>
       <c r="B38" t="n">
-        <v>-357.6276241108607</v>
+        <v>-418.8899104001548</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>-0.1231060606060606</v>
       </c>
       <c r="B39" t="n">
-        <v>-355.9028213622486</v>
+        <v>-417.2713387010605</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>-0.1132575757575758</v>
       </c>
       <c r="B40" t="n">
-        <v>-354.1780186136364</v>
+        <v>-415.6457720440536</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>-0.1034090909090909</v>
       </c>
       <c r="B41" t="n">
-        <v>-352.4532158650242</v>
+        <v>-414.1387603360671</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>-0.09356060606060607</v>
       </c>
       <c r="B42" t="n">
-        <v>-350.7284131164121</v>
+        <v>-412.7328951261615</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>-0.08371212121212124</v>
       </c>
       <c r="B43" t="n">
-        <v>-349.0036103678</v>
+        <v>-411.3300042038314</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>-0.07386363636363635</v>
       </c>
       <c r="B44" t="n">
-        <v>-347.2788076191879</v>
+        <v>-409.9300373812093</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>-0.06401515151515152</v>
       </c>
       <c r="B45" t="n">
-        <v>-345.5540048705756</v>
+        <v>-408.5328904909228</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>-0.0541666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>-343.8292021219635</v>
+        <v>-407.1384704183689</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>-0.04431818181818181</v>
       </c>
       <c r="B47" t="n">
-        <v>-342.1043993733513</v>
+        <v>-405.7466873154042</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>-0.03446969696969698</v>
       </c>
       <c r="B48" t="n">
-        <v>-340.3795966247391</v>
+        <v>-404.3574537504272</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>-0.0246212121212121</v>
       </c>
       <c r="B49" t="n">
-        <v>-338.654793876127</v>
+        <v>-402.9706847600422</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>-0.01477272727272727</v>
       </c>
       <c r="B50" t="n">
-        <v>-336.9299911275148</v>
+        <v>-401.5862977920694</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>-0.004924242424242442</v>
       </c>
       <c r="B51" t="n">
-        <v>-335.2051883789027</v>
+        <v>-400.2042126197489</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>0.004924242424242442</v>
       </c>
       <c r="B52" t="n">
-        <v>-333.4803856302905</v>
+        <v>-398.8206082198935</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>0.01477272727272727</v>
       </c>
       <c r="B53" t="n">
-        <v>-331.7555828816784</v>
+        <v>-397.3880561567511</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>0.02462121212121215</v>
       </c>
       <c r="B54" t="n">
-        <v>-330.0307801330662</v>
+        <v>-395.9492600178514</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>0.03446969696969693</v>
       </c>
       <c r="B55" t="n">
-        <v>-328.3059773844541</v>
+        <v>-394.5122200063109</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>0.04431818181818181</v>
       </c>
       <c r="B56" t="n">
-        <v>-326.5811746358419</v>
+        <v>-393.1378035112716</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>0.0541666666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>-324.8563718872298</v>
+        <v>-391.9002272546129</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>0.06401515151515147</v>
       </c>
       <c r="B58" t="n">
-        <v>-323.1315691386176</v>
+        <v>-390.6638475615761</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>0.07386363636363635</v>
       </c>
       <c r="B59" t="n">
-        <v>-321.4067663900056</v>
+        <v>-389.4287857743727</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>0.08371212121212124</v>
       </c>
       <c r="B60" t="n">
-        <v>-319.6819636413933</v>
+        <v>-388.1950207323515</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>0.09356060606060612</v>
       </c>
       <c r="B61" t="n">
-        <v>-317.9571608927811</v>
+        <v>-386.9625276165817</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>0.1034090909090909</v>
       </c>
       <c r="B62" t="n">
-        <v>-316.2323581441689</v>
+        <v>-385.7312825586822</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>0.1132575757575758</v>
       </c>
       <c r="B63" t="n">
-        <v>-314.5075553955568</v>
+        <v>-384.50126216073</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>0.1231060606060607</v>
       </c>
       <c r="B64" t="n">
-        <v>-312.7827526469446</v>
+        <v>-383.2724447038718</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>0.1329545454545454</v>
       </c>
       <c r="B65" t="n">
-        <v>-311.0579498983325</v>
+        <v>-382.0216324794046</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>0.1428030303030303</v>
       </c>
       <c r="B66" t="n">
-        <v>-309.3331471497204</v>
+        <v>-380.7306235781738</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>0.1526515151515152</v>
       </c>
       <c r="B67" t="n">
-        <v>-307.6083444011082</v>
+        <v>-379.4405166878601</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>0.1625</v>
       </c>
       <c r="B68" t="n">
-        <v>-305.883541652496</v>
+        <v>-378.1512843167332</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>0.1723484848484849</v>
       </c>
       <c r="B69" t="n">
-        <v>-304.1587389038838</v>
+        <v>-376.862895456399</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>0.1821969696969697</v>
       </c>
       <c r="B70" t="n">
-        <v>-302.4339361552717</v>
+        <v>-375.5753197880578</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>0.1920454545454545</v>
       </c>
       <c r="B71" t="n">
-        <v>-300.7091334066596</v>
+        <v>-374.4034311934863</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>0.2018939393939394</v>
       </c>
       <c r="B72" t="n">
-        <v>-298.9843306580474</v>
+        <v>-373.2923952335523</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>0.2117424242424243</v>
       </c>
       <c r="B73" t="n">
-        <v>-297.2595279094352</v>
+        <v>-372.1820501180406</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>0.2215909090909092</v>
       </c>
       <c r="B74" t="n">
-        <v>-295.5347251608231</v>
+        <v>-371.0723847902709</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>0.2314393939393939</v>
       </c>
       <c r="B75" t="n">
-        <v>-293.8099224122109</v>
+        <v>-369.9633974816864</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>0.2412878787878788</v>
       </c>
       <c r="B76" t="n">
-        <v>-292.0851196635988</v>
+        <v>-368.85508593818</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>0.2511363636363637</v>
       </c>
       <c r="B77" t="n">
-        <v>-290.3603169149868</v>
+        <v>-367.7059210369328</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>0.2609848484848485</v>
       </c>
       <c r="B78" t="n">
-        <v>-288.6355141663745</v>
+        <v>-366.5351754062033</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>0.2708333333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>-286.9107114177623</v>
+        <v>-365.3648731145641</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>0.2806818181818183</v>
       </c>
       <c r="B80" t="n">
-        <v>-285.1859086691503</v>
+        <v>-364.1949990747306</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>0.290530303030303</v>
       </c>
       <c r="B81" t="n">
-        <v>-283.461105920538</v>
+        <v>-363.025537930243</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>0.3003787878787879</v>
       </c>
       <c r="B82" t="n">
-        <v>-281.7363031719259</v>
+        <v>-361.8564736801931</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>0.3102272727272728</v>
       </c>
       <c r="B83" t="n">
-        <v>-280.0115004233138</v>
+        <v>-360.6877894765319</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>0.3200757575757576</v>
       </c>
       <c r="B84" t="n">
-        <v>-278.2866976747016</v>
+        <v>-359.5194653113875</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>0.3299242424242425</v>
       </c>
       <c r="B85" t="n">
-        <v>-276.5618949260894</v>
+        <v>-358.3886753288695</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>0.3397727272727273</v>
       </c>
       <c r="B86" t="n">
-        <v>-274.8370921774772</v>
+        <v>-357.3739850539546</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>0.3496212121212121</v>
       </c>
       <c r="B87" t="n">
-        <v>-273.1122894288652</v>
+        <v>-356.3597482705367</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>0.359469696969697</v>
       </c>
       <c r="B88" t="n">
-        <v>-271.387486680253</v>
+        <v>-355.3125250768509</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>0.3693181818181819</v>
       </c>
       <c r="B89" t="n">
-        <v>-269.6626839316409</v>
+        <v>-354.2384544887346</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>0.3791666666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>-267.9378811830286</v>
+        <v>-353.1646517885441</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>0.3890151515151515</v>
       </c>
       <c r="B91" t="n">
-        <v>-266.2130784344166</v>
+        <v>-352.0911134111197</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>0.3988636363636364</v>
       </c>
       <c r="B92" t="n">
-        <v>-264.4882756858044</v>
+        <v>-351.0178353110696</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>0.4087121212121213</v>
       </c>
       <c r="B93" t="n">
-        <v>-262.7634729371922</v>
+        <v>-349.9448129484988</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>0.4185606060606061</v>
       </c>
       <c r="B94" t="n">
-        <v>-261.0386701885801</v>
+        <v>-348.8720412612585</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>0.428409090909091</v>
       </c>
       <c r="B95" t="n">
-        <v>-259.3138674399679</v>
+        <v>-347.7995146368438</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>0.4382575757575758</v>
       </c>
       <c r="B96" t="n">
-        <v>-257.5890646913558</v>
+        <v>-346.7272268832045</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>0.4481060606060606</v>
       </c>
       <c r="B97" t="n">
-        <v>-255.8642619427436</v>
+        <v>-345.655171192636</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>0.4579545454545455</v>
       </c>
       <c r="B98" t="n">
-        <v>-254.1394591941314</v>
+        <v>-344.5814327261456</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>0.4678030303030304</v>
       </c>
       <c r="B99" t="n">
-        <v>-252.4146564455193</v>
+        <v>-343.4614292064902</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>0.4776515151515152</v>
       </c>
       <c r="B100" t="n">
-        <v>-250.6898536969071</v>
+        <v>-342.4481980623375</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>0.4875</v>
       </c>
       <c r="B101" t="n">
-        <v>-248.965050948295</v>
+        <v>-341.4514308220707</v>
       </c>
     </row>
   </sheetData>
